--- a/shared analysis files /acclimation_full_2june21.xlsx
+++ b/shared analysis files /acclimation_full_2june21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /acclimation /data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE36B9-5371-6846-AB11-39D037CE4663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E764264-7ADA-BF41-B394-FA399A5C5B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="860" windowWidth="23500" windowHeight="12900" xr2:uid="{BC548A7C-C40E-CC48-BA60-2918C3D37144}"/>
+    <workbookView xWindow="29120" yWindow="-14340" windowWidth="23500" windowHeight="12900" xr2:uid="{BC548A7C-C40E-CC48-BA60-2918C3D37144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="159">
   <si>
     <t>response_id</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Thermal preference</t>
-  </si>
-  <si>
-    <t>excluding CTmin</t>
   </si>
   <si>
     <t>including CTmin</t>
@@ -871,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD9C74-7293-0D4C-AEEE-5123D41AED94}">
-  <dimension ref="A1:AH335"/>
+  <dimension ref="A1:AH333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P332" sqref="P332:P335"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A308" sqref="A308:XFD308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24432,16 +24429,16 @@
         <v>43</v>
       </c>
       <c r="M307">
-        <v>8.0827067669172799</v>
+        <v>5.3571428571428399</v>
       </c>
       <c r="N307">
-        <v>4.5422674303772297</v>
+        <v>3.9689907169662302</v>
       </c>
       <c r="O307">
-        <v>9.1200222779170144</v>
+        <v>9.8858256752993263</v>
       </c>
       <c r="P307">
-        <v>3.4004871946803705</v>
+        <v>4.7358834244080077</v>
       </c>
       <c r="Q307" s="1">
         <v>35</v>
@@ -24479,13 +24476,13 @@
         <v>1</v>
       </c>
       <c r="B308" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D308" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="E308" s="1">
         <v>0</v>
@@ -24503,22 +24500,22 @@
         <v>24</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L308" t="s">
         <v>43</v>
       </c>
       <c r="M308">
-        <v>5.3571428571428399</v>
+        <v>5.4411764705881804</v>
       </c>
       <c r="N308">
-        <v>3.9689907169662302</v>
+        <v>5.0857067510549401</v>
       </c>
       <c r="O308">
-        <v>9.8858256752993263</v>
+        <v>9.8039215686273806</v>
       </c>
       <c r="P308">
-        <v>4.7358834244080077</v>
+        <v>10.172609978121592</v>
       </c>
       <c r="Q308" s="1">
         <v>35</v>
@@ -24548,7 +24545,7 @@
         <v>1</v>
       </c>
       <c r="AA308" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
@@ -24556,13 +24553,13 @@
         <v>1</v>
       </c>
       <c r="B309" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D309" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E309" s="1">
         <v>0</v>
@@ -24570,6 +24567,9 @@
       <c r="F309" s="1">
         <v>1</v>
       </c>
+      <c r="G309" s="2">
+        <v>0</v>
+      </c>
       <c r="H309" s="1">
         <v>10</v>
       </c>
@@ -24580,34 +24580,34 @@
         <v>24</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L309" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="M309">
-        <v>22.794117647058801</v>
+        <v>0.69012178619756703</v>
       </c>
       <c r="N309">
-        <v>22.509559599156098</v>
+        <v>0.60060060060060005</v>
       </c>
       <c r="O309">
-        <v>5.6644880174291838</v>
+        <v>6.7658998646820012E-2</v>
       </c>
       <c r="P309">
-        <v>3.8287232380059248</v>
+        <v>6.7567567567568487E-2</v>
       </c>
       <c r="Q309" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R309" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S309" s="1">
         <v>1</v>
       </c>
       <c r="T309" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U309" t="s">
         <v>132</v>
@@ -24624,22 +24624,19 @@
       <c r="Y309" s="1">
         <v>1</v>
       </c>
-      <c r="AA309" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>1</v>
       </c>
       <c r="B310" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D310" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E310" s="1">
         <v>0</v>
@@ -24647,6 +24644,9 @@
       <c r="F310" s="1">
         <v>1</v>
       </c>
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
       <c r="H310" s="1">
         <v>10</v>
       </c>
@@ -24657,34 +24657,34 @@
         <v>24</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L310" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="M310">
-        <v>5.4411764705881804</v>
+        <v>1.7456021650879501</v>
       </c>
       <c r="N310">
-        <v>5.0857067510549401</v>
+        <v>1.7867867867867799</v>
       </c>
       <c r="O310">
-        <v>9.8039215686273806</v>
+        <v>8.1190798376185036E-2</v>
       </c>
       <c r="P310">
-        <v>10.172609978121592</v>
+        <v>9.0090090090090058E-2</v>
       </c>
       <c r="Q310" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R310" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S310" s="1">
         <v>1</v>
       </c>
       <c r="T310" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U310" t="s">
         <v>132</v>
@@ -24701,9 +24701,6 @@
       <c r="Y310" s="1">
         <v>1</v>
       </c>
-      <c r="AA310" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
@@ -24725,7 +24722,7 @@
         <v>1</v>
       </c>
       <c r="G311" s="2">
-        <v>0</v>
+        <v>10.0159574468085</v>
       </c>
       <c r="H311" s="1">
         <v>10</v>
@@ -24737,22 +24734,22 @@
         <v>24</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L311" t="s">
         <v>130</v>
       </c>
       <c r="M311">
-        <v>0.69012178619756703</v>
+        <v>2.6251691474966101</v>
       </c>
       <c r="N311">
-        <v>0.60060060060060005</v>
+        <v>2.9429429429429401</v>
       </c>
       <c r="O311">
-        <v>6.7658998646820012E-2</v>
+        <v>0.14884979702300516</v>
       </c>
       <c r="P311">
-        <v>6.7567567567568487E-2</v>
+        <v>0.16516516516516511</v>
       </c>
       <c r="Q311" s="1">
         <v>28</v>
@@ -24802,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="G312" s="2">
-        <v>0</v>
+        <v>15.005319148936101</v>
       </c>
       <c r="H312" s="1">
         <v>10</v>
@@ -24814,22 +24811,22 @@
         <v>24</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L312" t="s">
         <v>130</v>
       </c>
       <c r="M312">
-        <v>1.7456021650879501</v>
+        <v>3.7212449255751001</v>
       </c>
       <c r="N312">
-        <v>1.7867867867867799</v>
+        <v>4.08408408408408</v>
       </c>
       <c r="O312">
-        <v>8.1190798376185036E-2</v>
+        <v>0.23004059539918997</v>
       </c>
       <c r="P312">
-        <v>9.0090090090090058E-2</v>
+        <v>0.1951951951951898</v>
       </c>
       <c r="Q312" s="1">
         <v>28</v>
@@ -24879,7 +24876,7 @@
         <v>1</v>
       </c>
       <c r="G313" s="2">
-        <v>10.0159574468085</v>
+        <v>19.994680851063801</v>
       </c>
       <c r="H313" s="1">
         <v>10</v>
@@ -24891,22 +24888,22 @@
         <v>24</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L313" t="s">
         <v>130</v>
       </c>
       <c r="M313">
-        <v>2.6251691474966101</v>
+        <v>4.4113667117726596</v>
       </c>
       <c r="N313">
-        <v>2.9429429429429401</v>
+        <v>4.8648648648648596</v>
       </c>
       <c r="O313">
-        <v>0.14884979702300516</v>
+        <v>0.24357239512855466</v>
       </c>
       <c r="P313">
-        <v>0.16516516516516511</v>
+        <v>0.21021021021020969</v>
       </c>
       <c r="Q313" s="1">
         <v>28</v>
@@ -24956,7 +24953,7 @@
         <v>1</v>
       </c>
       <c r="G314" s="2">
-        <v>15.005319148936101</v>
+        <v>24.984042553191401</v>
       </c>
       <c r="H314" s="1">
         <v>10</v>
@@ -24968,22 +24965,22 @@
         <v>24</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L314" t="s">
         <v>130</v>
       </c>
       <c r="M314">
-        <v>3.7212449255751001</v>
+        <v>4.2489851150202904</v>
       </c>
       <c r="N314">
-        <v>4.08408408408408</v>
+        <v>4.8048048048048004</v>
       </c>
       <c r="O314">
-        <v>0.23004059539918997</v>
+        <v>0.30446549391068989</v>
       </c>
       <c r="P314">
-        <v>0.1951951951951898</v>
+        <v>0.247747747747745</v>
       </c>
       <c r="Q314" s="1">
         <v>28</v>
@@ -25033,7 +25030,7 @@
         <v>1</v>
       </c>
       <c r="G315" s="2">
-        <v>19.994680851063801</v>
+        <v>30.010638297872301</v>
       </c>
       <c r="H315" s="1">
         <v>10</v>
@@ -25045,22 +25042,22 @@
         <v>24</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L315" t="s">
         <v>130</v>
       </c>
       <c r="M315">
-        <v>4.4113667117726596</v>
+        <v>4.04600811907983</v>
       </c>
       <c r="N315">
-        <v>4.8648648648648596</v>
+        <v>3.97897897897897</v>
       </c>
       <c r="O315">
-        <v>0.24357239512855466</v>
+        <v>0.28416779431664496</v>
       </c>
       <c r="P315">
-        <v>0.21021021021020969</v>
+        <v>0.16516516516516511</v>
       </c>
       <c r="Q315" s="1">
         <v>28</v>
@@ -25110,7 +25107,7 @@
         <v>1</v>
       </c>
       <c r="G316" s="2">
-        <v>24.984042553191401</v>
+        <v>34.999999999999901</v>
       </c>
       <c r="H316" s="1">
         <v>10</v>
@@ -25122,22 +25119,22 @@
         <v>24</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L316" t="s">
         <v>130</v>
       </c>
       <c r="M316">
-        <v>4.2489851150202904</v>
+        <v>3.3152909336941798</v>
       </c>
       <c r="N316">
-        <v>4.8048048048048004</v>
+        <v>3.2132132132132099</v>
       </c>
       <c r="O316">
-        <v>0.30446549391068989</v>
+        <v>0.21650879566981995</v>
       </c>
       <c r="P316">
-        <v>0.247747747747745</v>
+        <v>0.22522522522522492</v>
       </c>
       <c r="Q316" s="1">
         <v>28</v>
@@ -25166,19 +25163,25 @@
       <c r="Y316" s="1">
         <v>1</v>
       </c>
+      <c r="Z316" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>1</v>
       </c>
       <c r="B317" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D317" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E317" s="1">
         <v>0</v>
@@ -25187,40 +25190,40 @@
         <v>1</v>
       </c>
       <c r="G317" s="2">
-        <v>30.010638297872301</v>
+        <v>37.5</v>
       </c>
       <c r="H317" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I317" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J317" s="1">
         <v>24</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L317" t="s">
-        <v>130</v>
-      </c>
-      <c r="M317">
-        <v>4.04600811907983</v>
-      </c>
-      <c r="N317">
-        <v>3.97897897897897</v>
+        <v>143</v>
+      </c>
+      <c r="M317" s="3">
+        <v>61.776134300000002</v>
+      </c>
+      <c r="N317" s="3">
+        <v>58.528296699999999</v>
       </c>
       <c r="O317">
-        <v>0.28416779431664496</v>
+        <v>1.7616221999999999</v>
       </c>
       <c r="P317">
-        <v>0.16516516516516511</v>
+        <v>2.2107081200000001</v>
       </c>
       <c r="Q317" s="1">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="R317" s="1">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="S317" s="1">
         <v>1</v>
@@ -25229,19 +25232,25 @@
         <v>0</v>
       </c>
       <c r="U317" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="V317" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="W317" s="1">
         <v>1</v>
       </c>
       <c r="X317" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y317" s="1">
         <v>1</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
@@ -25249,13 +25258,13 @@
         <v>1</v>
       </c>
       <c r="B318" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D318" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E318" s="1">
         <v>0</v>
@@ -25264,40 +25273,40 @@
         <v>1</v>
       </c>
       <c r="G318" s="2">
-        <v>34.999999999999901</v>
+        <v>37.5</v>
       </c>
       <c r="H318" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I318" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J318" s="1">
         <v>24</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L318" t="s">
-        <v>130</v>
-      </c>
-      <c r="M318">
-        <v>3.3152909336941798</v>
-      </c>
-      <c r="N318">
-        <v>3.2132132132132099</v>
+        <v>143</v>
+      </c>
+      <c r="M318" s="3">
+        <v>36.0766524</v>
+      </c>
+      <c r="N318" s="3">
+        <v>29.7198633</v>
       </c>
       <c r="O318">
-        <v>0.21650879566981995</v>
+        <v>1.8307426600000001</v>
       </c>
       <c r="P318">
-        <v>0.22522522522522492</v>
+        <v>1.51986183</v>
       </c>
       <c r="Q318" s="1">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="R318" s="1">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="S318" s="1">
         <v>1</v>
@@ -25306,25 +25315,19 @@
         <v>0</v>
       </c>
       <c r="U318" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="V318" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="W318" s="1">
         <v>1</v>
       </c>
       <c r="X318" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y318" s="1">
         <v>1</v>
-      </c>
-      <c r="Z318" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA318" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
@@ -25332,22 +25335,19 @@
         <v>1</v>
       </c>
       <c r="B319" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D319" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E319" s="1">
         <v>0</v>
       </c>
       <c r="F319" s="1">
         <v>1</v>
-      </c>
-      <c r="G319" s="2">
-        <v>37.5</v>
       </c>
       <c r="H319" s="1">
         <v>23</v>
@@ -25359,28 +25359,28 @@
         <v>24</v>
       </c>
       <c r="K319" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L319" t="s">
         <v>143</v>
       </c>
-      <c r="L319" t="s">
-        <v>144</v>
-      </c>
-      <c r="M319" s="3">
-        <v>61.776134300000002</v>
-      </c>
-      <c r="N319" s="3">
-        <v>58.528296699999999</v>
-      </c>
-      <c r="O319">
-        <v>1.7616221999999999</v>
+      <c r="M319">
+        <v>39.054339116499399</v>
+      </c>
+      <c r="N319">
+        <v>40.230621169999999</v>
+      </c>
+      <c r="O319" s="3">
+        <v>0.11858974</v>
       </c>
       <c r="P319">
-        <v>2.2107081200000001</v>
+        <v>9.6153846153850253E-2</v>
       </c>
       <c r="Q319" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="R319" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="S319" s="1">
         <v>1</v>
@@ -25392,7 +25392,7 @@
         <v>115</v>
       </c>
       <c r="V319" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W319" s="1">
         <v>1</v>
@@ -25402,12 +25402,6 @@
       </c>
       <c r="Y319" s="1">
         <v>1</v>
-      </c>
-      <c r="Z319" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA319" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
@@ -25415,22 +25409,19 @@
         <v>1</v>
       </c>
       <c r="B320" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D320" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E320" s="1">
         <v>0</v>
       </c>
       <c r="F320" s="1">
         <v>1</v>
-      </c>
-      <c r="G320" s="2">
-        <v>37.5</v>
       </c>
       <c r="H320" s="1">
         <v>23</v>
@@ -25442,28 +25433,28 @@
         <v>24</v>
       </c>
       <c r="K320" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L320" t="s">
         <v>143</v>
       </c>
-      <c r="L320" t="s">
-        <v>144</v>
-      </c>
-      <c r="M320" s="3">
-        <v>36.0766524</v>
-      </c>
-      <c r="N320" s="3">
-        <v>29.7198633</v>
+      <c r="M320">
+        <v>39.445207984949803</v>
+      </c>
+      <c r="N320">
+        <v>39.852259267001102</v>
       </c>
       <c r="O320">
-        <v>1.8307426600000001</v>
+        <v>0.10576923076919797</v>
       </c>
       <c r="P320">
-        <v>1.51986183</v>
+        <v>8.1730769230752287E-2</v>
       </c>
       <c r="Q320" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="R320" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="S320" s="1">
         <v>1</v>
@@ -25475,7 +25466,7 @@
         <v>115</v>
       </c>
       <c r="V320" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W320" s="1">
         <v>1</v>
@@ -25495,7 +25486,7 @@
         <v>3</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D321" t="s">
         <v>74</v>
@@ -25519,19 +25510,19 @@
         <v>96</v>
       </c>
       <c r="L321" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M321">
-        <v>39.054339116499399</v>
+        <v>39.637358904682202</v>
       </c>
       <c r="N321">
-        <v>40.230621169999999</v>
-      </c>
-      <c r="O321" s="3">
-        <v>0.11858974</v>
+        <v>40.005948648272003</v>
+      </c>
+      <c r="O321">
+        <v>0.11858974358970187</v>
       </c>
       <c r="P321">
-        <v>9.6153846153850253E-2</v>
+        <v>6.8914611204000664E-2</v>
       </c>
       <c r="Q321" s="1">
         <v>16</v>
@@ -25549,7 +25540,7 @@
         <v>115</v>
       </c>
       <c r="V321" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W321" s="1">
         <v>1</v>
@@ -25566,13 +25557,13 @@
         <v>1</v>
       </c>
       <c r="B322" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D322" t="s">
-        <v>74</v>
+        <v>145</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E322" s="1">
         <v>0</v>
@@ -25581,10 +25572,10 @@
         <v>1</v>
       </c>
       <c r="H322" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I322" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J322" s="1">
         <v>24</v>
@@ -25593,25 +25584,25 @@
         <v>96</v>
       </c>
       <c r="L322" t="s">
-        <v>144</v>
-      </c>
-      <c r="M322">
-        <v>39.445207984949803</v>
-      </c>
-      <c r="N322">
-        <v>39.852259267001102</v>
+        <v>43</v>
+      </c>
+      <c r="M322" s="3">
+        <v>33.283018900000002</v>
+      </c>
+      <c r="N322" s="3">
+        <v>35.264150899999997</v>
       </c>
       <c r="O322">
-        <v>0.10576923076919797</v>
+        <v>0.79245283</v>
       </c>
       <c r="P322">
-        <v>8.1730769230752287E-2</v>
+        <v>0.59433961999999996</v>
       </c>
       <c r="Q322" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R322" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S322" s="1">
         <v>1</v>
@@ -25620,33 +25611,33 @@
         <v>0</v>
       </c>
       <c r="U322" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="V322" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="W322" s="1">
         <v>1</v>
       </c>
       <c r="X322" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y322" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B323" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D323" t="s">
-        <v>74</v>
+        <v>145</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E323" s="1">
         <v>0</v>
@@ -25655,37 +25646,37 @@
         <v>1</v>
       </c>
       <c r="H323" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I323" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J323" s="1">
         <v>24</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L323" t="s">
-        <v>144</v>
-      </c>
-      <c r="M323">
-        <v>39.637358904682202</v>
-      </c>
-      <c r="N323">
-        <v>40.005948648272003</v>
+        <v>43</v>
+      </c>
+      <c r="M323" s="3">
+        <v>5.1844155799999996</v>
+      </c>
+      <c r="N323" s="3">
+        <v>4.8772517799999999</v>
       </c>
       <c r="O323">
-        <v>0.11858974358970187</v>
+        <v>0.25345622000000001</v>
       </c>
       <c r="P323">
-        <v>6.8914611204000664E-2</v>
+        <v>0.18433179999999999</v>
       </c>
       <c r="Q323" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R323" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S323" s="1">
         <v>1</v>
@@ -25694,33 +25685,33 @@
         <v>0</v>
       </c>
       <c r="U323" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="V323" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="W323" s="1">
         <v>1</v>
       </c>
       <c r="X323" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y323" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1">
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E324" s="1">
         <v>0</v>
@@ -25738,22 +25729,22 @@
         <v>24</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L324" t="s">
         <v>43</v>
       </c>
       <c r="M324" s="3">
-        <v>33.283018900000002</v>
-      </c>
-      <c r="N324" s="3">
-        <v>35.264150899999997</v>
+        <v>34.194690299999998</v>
+      </c>
+      <c r="N324">
+        <v>36.053097299999997</v>
       </c>
       <c r="O324">
-        <v>0.79245283</v>
+        <v>0.37168141999999998</v>
       </c>
       <c r="P324">
-        <v>0.59433961999999996</v>
+        <v>0.18584070999999999</v>
       </c>
       <c r="Q324" s="1">
         <v>8</v>
@@ -25768,10 +25759,10 @@
         <v>0</v>
       </c>
       <c r="U324" t="s">
+        <v>152</v>
+      </c>
+      <c r="V324" t="s">
         <v>153</v>
-      </c>
-      <c r="V324" t="s">
-        <v>154</v>
       </c>
       <c r="W324" s="1">
         <v>1</v>
@@ -25785,16 +25776,16 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B325" s="1">
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E325" s="1">
         <v>0</v>
@@ -25812,22 +25803,22 @@
         <v>24</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="L325" t="s">
         <v>43</v>
       </c>
       <c r="M325" s="3">
-        <v>5.1844155799999996</v>
+        <v>3.4199134199999999</v>
       </c>
       <c r="N325" s="3">
-        <v>4.8772517799999999</v>
+        <v>2.5541125500000001</v>
       </c>
       <c r="O325">
-        <v>0.25345622000000001</v>
+        <v>0.19480518999999999</v>
       </c>
       <c r="P325">
-        <v>0.18433179999999999</v>
+        <v>0.17316017</v>
       </c>
       <c r="Q325" s="1">
         <v>8</v>
@@ -25842,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="U325" t="s">
+        <v>152</v>
+      </c>
+      <c r="V325" t="s">
         <v>153</v>
-      </c>
-      <c r="V325" t="s">
-        <v>154</v>
       </c>
       <c r="W325" s="1">
         <v>1</v>
@@ -25859,55 +25850,58 @@
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B326" s="1">
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E326" s="1">
         <v>0</v>
       </c>
       <c r="F326" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G326" s="5">
+        <v>9.9925458767404205</v>
       </c>
       <c r="H326" s="1">
         <v>20</v>
       </c>
       <c r="I326" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J326" s="1">
         <v>24</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L326" t="s">
-        <v>43</v>
-      </c>
-      <c r="M326" s="3">
-        <v>34.194690299999998</v>
+        <v>156</v>
+      </c>
+      <c r="M326">
+        <v>0.46273932253313699</v>
       </c>
       <c r="N326">
-        <v>36.053097299999997</v>
+        <v>0.44653902798232697</v>
       </c>
       <c r="O326">
-        <v>0.37168141999999998</v>
+        <v>6.774668630338751E-2</v>
       </c>
       <c r="P326">
-        <v>0.18584070999999999</v>
+        <v>6.4064801178202985E-2</v>
       </c>
       <c r="Q326" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R326" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S326" s="1">
         <v>1</v>
@@ -25916,72 +25910,75 @@
         <v>0</v>
       </c>
       <c r="U326" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="V326" t="s">
-        <v>154</v>
-      </c>
-      <c r="W326" s="1">
-        <v>1</v>
-      </c>
-      <c r="X326" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y326" s="1">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="W326" s="3">
+        <v>1</v>
+      </c>
+      <c r="X326" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y326" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B327" s="1">
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E327" s="1">
         <v>0</v>
       </c>
       <c r="F327" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G327" s="5">
+        <v>15.005308239290899</v>
       </c>
       <c r="H327" s="1">
         <v>20</v>
       </c>
       <c r="I327" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J327" s="1">
         <v>24</v>
       </c>
       <c r="K327" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L327" t="s">
-        <v>43</v>
-      </c>
-      <c r="M327" s="3">
-        <v>3.4199134199999999</v>
-      </c>
-      <c r="N327" s="3">
-        <v>2.5541125500000001</v>
+        <v>156</v>
+      </c>
+      <c r="M327">
+        <v>0.51870397643593502</v>
+      </c>
+      <c r="N327">
+        <v>0.41413843888070601</v>
       </c>
       <c r="O327">
-        <v>0.19480518999999999</v>
+        <v>6.4801178203239995E-2</v>
       </c>
       <c r="P327">
-        <v>0.17316017</v>
+        <v>7.0692194403534497E-2</v>
       </c>
       <c r="Q327" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R327" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S327" s="1">
         <v>1</v>
@@ -25990,19 +25987,19 @@
         <v>0</v>
       </c>
       <c r="U327" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="V327" t="s">
-        <v>154</v>
-      </c>
-      <c r="W327" s="1">
-        <v>1</v>
-      </c>
-      <c r="X327" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y327" s="1">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="W327" s="3">
+        <v>1</v>
+      </c>
+      <c r="X327" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y327" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.2">
@@ -26013,7 +26010,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>134</v>
@@ -26025,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="G328" s="5">
-        <v>9.9925458767404205</v>
+        <v>20.014275775454699</v>
       </c>
       <c r="H328" s="1">
         <v>20</v>
@@ -26037,22 +26034,22 @@
         <v>24</v>
       </c>
       <c r="K328" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L328" t="s">
         <v>156</v>
       </c>
-      <c r="L328" t="s">
-        <v>157</v>
-      </c>
       <c r="M328">
-        <v>0.46273932253313699</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="N328">
-        <v>0.44653902798232697</v>
+        <v>0.54226804123711303</v>
       </c>
       <c r="O328">
-        <v>6.774668630338751E-2</v>
+        <v>8.5419734904271016E-2</v>
       </c>
       <c r="P328">
-        <v>6.4064801178202985E-2</v>
+        <v>9.2783505154639484E-2</v>
       </c>
       <c r="Q328" s="1">
         <v>5</v>
@@ -26067,10 +26064,10 @@
         <v>0</v>
       </c>
       <c r="U328" t="s">
+        <v>157</v>
+      </c>
+      <c r="V328" t="s">
         <v>158</v>
-      </c>
-      <c r="V328" t="s">
-        <v>159</v>
       </c>
       <c r="W328" s="3">
         <v>1</v>
@@ -26090,7 +26087,7 @@
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>134</v>
@@ -26102,7 +26099,7 @@
         <v>0</v>
       </c>
       <c r="G329" s="5">
-        <v>15.005308239290899</v>
+        <v>24.985328930129999</v>
       </c>
       <c r="H329" s="1">
         <v>20</v>
@@ -26114,22 +26111,22 @@
         <v>24</v>
       </c>
       <c r="K329" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L329" t="s">
         <v>156</v>
       </c>
-      <c r="L329" t="s">
-        <v>157</v>
-      </c>
       <c r="M329">
-        <v>0.51870397643593502</v>
+        <v>0.61958762886597896</v>
       </c>
       <c r="N329">
-        <v>0.41413843888070601</v>
+        <v>0.62326951399116304</v>
       </c>
       <c r="O329">
-        <v>6.4801178203239995E-2</v>
+        <v>8.2474226804124029E-2</v>
       </c>
       <c r="P329">
-        <v>7.0692194403534497E-2</v>
+        <v>8.61561119293075E-2</v>
       </c>
       <c r="Q329" s="1">
         <v>5</v>
@@ -26144,10 +26141,10 @@
         <v>0</v>
       </c>
       <c r="U329" t="s">
+        <v>157</v>
+      </c>
+      <c r="V329" t="s">
         <v>158</v>
-      </c>
-      <c r="V329" t="s">
-        <v>159</v>
       </c>
       <c r="W329" s="3">
         <v>1</v>
@@ -26167,7 +26164,7 @@
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>134</v>
@@ -26179,34 +26176,34 @@
         <v>0</v>
       </c>
       <c r="G330" s="5">
-        <v>20.014275775454699</v>
+        <v>9.9925458767404205</v>
       </c>
       <c r="H330" s="1">
         <v>20</v>
       </c>
       <c r="I330" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J330" s="1">
         <v>24</v>
       </c>
       <c r="K330" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L330" t="s">
         <v>156</v>
       </c>
-      <c r="L330" t="s">
-        <v>157</v>
-      </c>
       <c r="M330">
-        <v>0.65714285714285703</v>
+        <v>0.46273932253313699</v>
       </c>
       <c r="N330">
-        <v>0.54226804123711303</v>
+        <v>0.44653902798232697</v>
       </c>
       <c r="O330">
-        <v>8.5419734904271016E-2</v>
+        <v>6.774668630338751E-2</v>
       </c>
       <c r="P330">
-        <v>9.2783505154639484E-2</v>
+        <v>6.6273932253313989E-2</v>
       </c>
       <c r="Q330" s="1">
         <v>5</v>
@@ -26221,10 +26218,10 @@
         <v>0</v>
       </c>
       <c r="U330" t="s">
+        <v>157</v>
+      </c>
+      <c r="V330" t="s">
         <v>158</v>
-      </c>
-      <c r="V330" t="s">
-        <v>159</v>
       </c>
       <c r="W330" s="3">
         <v>1</v>
@@ -26244,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>134</v>
@@ -26256,34 +26253,34 @@
         <v>0</v>
       </c>
       <c r="G331" s="5">
-        <v>24.985328930129999</v>
+        <v>15.005308239290899</v>
       </c>
       <c r="H331" s="1">
         <v>20</v>
       </c>
       <c r="I331" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J331" s="1">
         <v>24</v>
       </c>
       <c r="K331" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L331" t="s">
         <v>156</v>
       </c>
-      <c r="L331" t="s">
-        <v>157</v>
-      </c>
       <c r="M331">
-        <v>0.61958762886597896</v>
+        <v>0.51870397643593502</v>
       </c>
       <c r="N331">
-        <v>0.62326951399116304</v>
+        <v>0.48335787923416701</v>
       </c>
       <c r="O331">
-        <v>8.2474226804124029E-2</v>
+        <v>6.4801178203239995E-2</v>
       </c>
       <c r="P331">
-        <v>8.61561119293075E-2</v>
+        <v>7.2164948453608463E-2</v>
       </c>
       <c r="Q331" s="1">
         <v>5</v>
@@ -26298,10 +26295,10 @@
         <v>0</v>
       </c>
       <c r="U331" t="s">
+        <v>157</v>
+      </c>
+      <c r="V331" t="s">
         <v>158</v>
-      </c>
-      <c r="V331" t="s">
-        <v>159</v>
       </c>
       <c r="W331" s="3">
         <v>1</v>
@@ -26321,7 +26318,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>134</v>
@@ -26333,7 +26330,7 @@
         <v>0</v>
       </c>
       <c r="G332" s="5">
-        <v>9.9925458767404205</v>
+        <v>20.014275775454699</v>
       </c>
       <c r="H332" s="1">
         <v>20</v>
@@ -26345,22 +26342,22 @@
         <v>24</v>
       </c>
       <c r="K332" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L332" t="s">
         <v>156</v>
       </c>
-      <c r="L332" t="s">
-        <v>157</v>
-      </c>
       <c r="M332">
-        <v>0.46273932253313699</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="N332">
-        <v>0.44653902798232697</v>
+        <v>0.57172312223858601</v>
       </c>
       <c r="O332">
-        <v>6.774668630338751E-2</v>
+        <v>8.5419734904271016E-2</v>
       </c>
       <c r="P332">
-        <v>6.6273932253313989E-2</v>
+        <v>7.2901325478644974E-2</v>
       </c>
       <c r="Q332" s="1">
         <v>5</v>
@@ -26375,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="U332" t="s">
+        <v>157</v>
+      </c>
+      <c r="V332" t="s">
         <v>158</v>
-      </c>
-      <c r="V332" t="s">
-        <v>159</v>
       </c>
       <c r="W332" s="3">
         <v>1</v>
@@ -26398,7 +26395,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>134</v>
@@ -26410,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>15.005308239290899</v>
+        <v>24.985328930129999</v>
       </c>
       <c r="H333" s="1">
         <v>20</v>
@@ -26422,22 +26419,22 @@
         <v>24</v>
       </c>
       <c r="K333" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L333" t="s">
         <v>156</v>
       </c>
-      <c r="L333" t="s">
-        <v>157</v>
-      </c>
       <c r="M333">
-        <v>0.51870397643593502</v>
+        <v>0.61958762886597896</v>
       </c>
       <c r="N333">
-        <v>0.48335787923416701</v>
+        <v>0.57319587628865898</v>
       </c>
       <c r="O333">
-        <v>6.4801178203239995E-2</v>
+        <v>8.2474226804124029E-2</v>
       </c>
       <c r="P333">
-        <v>7.2164948453608463E-2</v>
+        <v>8.2474226804124001E-2</v>
       </c>
       <c r="Q333" s="1">
         <v>5</v>
@@ -26452,11 +26449,11 @@
         <v>0</v>
       </c>
       <c r="U333" t="s">
+        <v>157</v>
+      </c>
+      <c r="V333" t="s">
         <v>158</v>
       </c>
-      <c r="V333" t="s">
-        <v>159</v>
-      </c>
       <c r="W333" s="3">
         <v>1</v>
       </c>
@@ -26464,160 +26461,6 @@
         <v>2</v>
       </c>
       <c r="Y333" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>1</v>
-      </c>
-      <c r="B334" s="1">
-        <v>1</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E334" s="1">
-        <v>0</v>
-      </c>
-      <c r="F334" s="1">
-        <v>0</v>
-      </c>
-      <c r="G334" s="5">
-        <v>20.014275775454699</v>
-      </c>
-      <c r="H334" s="1">
-        <v>20</v>
-      </c>
-      <c r="I334" s="1">
-        <v>12</v>
-      </c>
-      <c r="J334" s="1">
-        <v>24</v>
-      </c>
-      <c r="K334" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L334" t="s">
-        <v>157</v>
-      </c>
-      <c r="M334">
-        <v>0.65714285714285703</v>
-      </c>
-      <c r="N334">
-        <v>0.57172312223858601</v>
-      </c>
-      <c r="O334">
-        <v>8.5419734904271016E-2</v>
-      </c>
-      <c r="P334">
-        <v>7.2901325478644974E-2</v>
-      </c>
-      <c r="Q334" s="1">
-        <v>5</v>
-      </c>
-      <c r="R334" s="1">
-        <v>5</v>
-      </c>
-      <c r="S334" s="1">
-        <v>1</v>
-      </c>
-      <c r="T334" s="1">
-        <v>0</v>
-      </c>
-      <c r="U334" t="s">
-        <v>158</v>
-      </c>
-      <c r="V334" t="s">
-        <v>159</v>
-      </c>
-      <c r="W334" s="3">
-        <v>1</v>
-      </c>
-      <c r="X334" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y334" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
-        <v>1</v>
-      </c>
-      <c r="B335" s="1">
-        <v>1</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E335" s="1">
-        <v>0</v>
-      </c>
-      <c r="F335" s="1">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>24.985328930129999</v>
-      </c>
-      <c r="H335" s="1">
-        <v>20</v>
-      </c>
-      <c r="I335" s="1">
-        <v>12</v>
-      </c>
-      <c r="J335" s="1">
-        <v>24</v>
-      </c>
-      <c r="K335" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L335" t="s">
-        <v>157</v>
-      </c>
-      <c r="M335">
-        <v>0.61958762886597896</v>
-      </c>
-      <c r="N335">
-        <v>0.57319587628865898</v>
-      </c>
-      <c r="O335">
-        <v>8.2474226804124029E-2</v>
-      </c>
-      <c r="P335">
-        <v>8.2474226804124001E-2</v>
-      </c>
-      <c r="Q335" s="1">
-        <v>5</v>
-      </c>
-      <c r="R335" s="1">
-        <v>5</v>
-      </c>
-      <c r="S335" s="1">
-        <v>1</v>
-      </c>
-      <c r="T335" s="1">
-        <v>0</v>
-      </c>
-      <c r="U335" t="s">
-        <v>158</v>
-      </c>
-      <c r="V335" t="s">
-        <v>159</v>
-      </c>
-      <c r="W335" s="3">
-        <v>1</v>
-      </c>
-      <c r="X335" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y335" s="3">
         <v>1</v>
       </c>
     </row>
